--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Myl9-Cd69.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Myl9-Cd69.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -91,13 +97,7 @@
     <t>Cd69</t>
   </si>
   <si>
-    <t>M1</t>
-  </si>
-  <si>
     <t>M2</t>
-  </si>
-  <si>
-    <t>Neutro</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.36330094585088</v>
+        <v>4.539846666666667</v>
       </c>
       <c r="H2">
-        <v>4.36330094585088</v>
+        <v>13.61954</v>
       </c>
       <c r="I2">
-        <v>0.1008279029664451</v>
+        <v>0.08984851042696833</v>
       </c>
       <c r="J2">
-        <v>0.1008279029664451</v>
+        <v>0.08984851042696834</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>12.1911538106663</v>
+        <v>0.004819666666666667</v>
       </c>
       <c r="N2">
-        <v>12.1911538106663</v>
+        <v>0.014459</v>
       </c>
       <c r="O2">
-        <v>0.1323445532876965</v>
+        <v>4.905670228042789E-05</v>
       </c>
       <c r="P2">
-        <v>0.1323445532876965</v>
+        <v>4.90567022804279E-05</v>
       </c>
       <c r="Q2">
-        <v>53.19367295309383</v>
+        <v>0.02188054765111111</v>
       </c>
       <c r="R2">
-        <v>53.19367295309383</v>
+        <v>0.19692492886</v>
       </c>
       <c r="S2">
-        <v>0.01334402377702938</v>
+        <v>4.407671626355706E-06</v>
       </c>
       <c r="T2">
-        <v>0.01334402377702938</v>
+        <v>4.407671626355708E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.36330094585088</v>
+        <v>4.539846666666667</v>
       </c>
       <c r="H3">
-        <v>4.36330094585088</v>
+        <v>13.61954</v>
       </c>
       <c r="I3">
-        <v>0.1008279029664451</v>
+        <v>0.08984851042696833</v>
       </c>
       <c r="J3">
-        <v>0.1008279029664451</v>
+        <v>0.08984851042696834</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>20.1920933080529</v>
+        <v>0.004308666666666666</v>
       </c>
       <c r="N3">
-        <v>20.1920933080529</v>
+        <v>0.012926</v>
       </c>
       <c r="O3">
-        <v>0.2192010379247026</v>
+        <v>4.385551792494715E-05</v>
       </c>
       <c r="P3">
-        <v>0.2192010379247026</v>
+        <v>4.385551792494716E-05</v>
       </c>
       <c r="Q3">
-        <v>88.10417982973644</v>
+        <v>0.01956068600444444</v>
       </c>
       <c r="R3">
-        <v>88.10417982973644</v>
+        <v>0.17604617404</v>
       </c>
       <c r="S3">
-        <v>0.02210158098201596</v>
+        <v>3.940352959559711E-06</v>
       </c>
       <c r="T3">
-        <v>0.02210158098201596</v>
+        <v>3.940352959559711E-06</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,433 +652,1735 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.36330094585088</v>
+        <v>4.539846666666667</v>
       </c>
       <c r="H4">
-        <v>4.36330094585088</v>
+        <v>13.61954</v>
       </c>
       <c r="I4">
-        <v>0.1008279029664451</v>
+        <v>0.08984851042696833</v>
       </c>
       <c r="J4">
-        <v>0.1008279029664451</v>
+        <v>0.08984851042696834</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>59.7335306995914</v>
+        <v>16.61914433333333</v>
       </c>
       <c r="N4">
-        <v>59.7335306995914</v>
+        <v>49.857433</v>
       </c>
       <c r="O4">
-        <v>0.6484544087876011</v>
+        <v>0.169157012735831</v>
       </c>
       <c r="P4">
-        <v>0.6484544087876011</v>
+        <v>0.169157012735831</v>
       </c>
       <c r="Q4">
-        <v>260.6353710005397</v>
+        <v>75.44836700453556</v>
       </c>
       <c r="R4">
-        <v>260.6353710005397</v>
+        <v>679.0353030408201</v>
       </c>
       <c r="S4">
-        <v>0.06538229820739977</v>
+        <v>0.01519850562259013</v>
       </c>
       <c r="T4">
-        <v>0.06538229820739977</v>
+        <v>0.01519850562259013</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.97515121512697</v>
+        <v>4.539846666666667</v>
       </c>
       <c r="H5">
-        <v>6.97515121512697</v>
+        <v>13.61954</v>
       </c>
       <c r="I5">
-        <v>0.1611829847684174</v>
+        <v>0.08984851042696833</v>
       </c>
       <c r="J5">
-        <v>0.1611829847684174</v>
+        <v>0.08984851042696834</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>12.1911538106663</v>
+        <v>20.98681533333334</v>
       </c>
       <c r="N5">
-        <v>12.1911538106663</v>
+        <v>62.960446</v>
       </c>
       <c r="O5">
-        <v>0.1323445532876965</v>
+        <v>0.2136131029023416</v>
       </c>
       <c r="P5">
-        <v>0.1323445532876965</v>
+        <v>0.2136131029023416</v>
       </c>
       <c r="Q5">
-        <v>85.03514131626883</v>
+        <v>95.27692363498224</v>
       </c>
       <c r="R5">
-        <v>85.03514131626883</v>
+        <v>857.4923127148401</v>
       </c>
       <c r="S5">
-        <v>0.02133169011675379</v>
+        <v>0.0191928191034581</v>
       </c>
       <c r="T5">
-        <v>0.02133169011675379</v>
+        <v>0.0191928191034581</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>6.97515121512697</v>
+        <v>4.539846666666667</v>
       </c>
       <c r="H6">
-        <v>6.97515121512697</v>
+        <v>13.61954</v>
       </c>
       <c r="I6">
-        <v>0.1611829847684174</v>
+        <v>0.08984851042696833</v>
       </c>
       <c r="J6">
-        <v>0.1611829847684174</v>
+        <v>0.08984851042696834</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>20.1920933080529</v>
+        <v>60.62995566666667</v>
       </c>
       <c r="N6">
-        <v>20.1920933080529</v>
+        <v>181.889867</v>
       </c>
       <c r="O6">
-        <v>0.2192010379247026</v>
+        <v>0.6171185457670396</v>
       </c>
       <c r="P6">
-        <v>0.2192010379247026</v>
+        <v>0.6171185457670397</v>
       </c>
       <c r="Q6">
-        <v>140.8429041736223</v>
+        <v>275.2507021334644</v>
       </c>
       <c r="R6">
-        <v>140.8429041736223</v>
+        <v>2477.25631920118</v>
       </c>
       <c r="S6">
-        <v>0.03533147755703862</v>
+        <v>0.05544718209402539</v>
       </c>
       <c r="T6">
-        <v>0.03533147755703862</v>
+        <v>0.05544718209402541</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
-        <v>27</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>6.97515121512697</v>
+        <v>4.539846666666667</v>
       </c>
       <c r="H7">
-        <v>6.97515121512697</v>
+        <v>13.61954</v>
       </c>
       <c r="I7">
-        <v>0.1611829847684174</v>
+        <v>0.08984851042696833</v>
       </c>
       <c r="J7">
-        <v>0.1611829847684174</v>
+        <v>0.08984851042696834</v>
       </c>
       <c r="K7">
         <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>59.7335306995914</v>
+        <v>0.001810333333333333</v>
       </c>
       <c r="N7">
-        <v>59.7335306995914</v>
+        <v>0.005431</v>
       </c>
       <c r="O7">
-        <v>0.6484544087876011</v>
+        <v>1.842637458226737E-05</v>
       </c>
       <c r="P7">
-        <v>0.6484544087876011</v>
+        <v>1.842637458226737E-05</v>
       </c>
       <c r="Q7">
-        <v>416.6504092430791</v>
+        <v>0.008218635748888889</v>
       </c>
       <c r="R7">
-        <v>416.6504092430791</v>
+        <v>0.07396772174000001</v>
       </c>
       <c r="S7">
-        <v>0.104519817094625</v>
+        <v>1.655582308786074E-06</v>
       </c>
       <c r="T7">
-        <v>0.104519817094625</v>
+        <v>1.655582308786074E-06</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>31.936284469248</v>
+        <v>7.254459333333334</v>
       </c>
       <c r="H8">
-        <v>31.936284469248</v>
+        <v>21.763378</v>
       </c>
       <c r="I8">
-        <v>0.7379891122651374</v>
+        <v>0.1435736519118159</v>
       </c>
       <c r="J8">
-        <v>0.7379891122651374</v>
+        <v>0.1435736519118159</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>12.1911538106663</v>
+        <v>0.004819666666666667</v>
       </c>
       <c r="N8">
-        <v>12.1911538106663</v>
+        <v>0.014459</v>
       </c>
       <c r="O8">
-        <v>0.1323445532876965</v>
+        <v>4.905670228042789E-05</v>
       </c>
       <c r="P8">
-        <v>0.1323445532876965</v>
+        <v>4.90567022804279E-05</v>
       </c>
       <c r="Q8">
-        <v>389.3401561057958</v>
+        <v>0.03496407583355556</v>
       </c>
       <c r="R8">
-        <v>389.3401561057958</v>
+        <v>0.314676682502</v>
       </c>
       <c r="S8">
-        <v>0.09766883939391328</v>
+        <v>7.04324989715174E-06</v>
       </c>
       <c r="T8">
-        <v>0.09766883939391328</v>
+        <v>7.043249897151742E-06</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>31.936284469248</v>
+        <v>7.254459333333334</v>
       </c>
       <c r="H9">
-        <v>31.936284469248</v>
+        <v>21.763378</v>
       </c>
       <c r="I9">
-        <v>0.7379891122651374</v>
+        <v>0.1435736519118159</v>
       </c>
       <c r="J9">
-        <v>0.7379891122651374</v>
+        <v>0.1435736519118159</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>20.1920933080529</v>
+        <v>0.004308666666666666</v>
       </c>
       <c r="N9">
-        <v>20.1920933080529</v>
+        <v>0.012926</v>
       </c>
       <c r="O9">
-        <v>0.2192010379247026</v>
+        <v>4.385551792494715E-05</v>
       </c>
       <c r="P9">
-        <v>0.2192010379247026</v>
+        <v>4.385551792494716E-05</v>
       </c>
       <c r="Q9">
-        <v>644.8604359155763</v>
+        <v>0.03125704711422223</v>
       </c>
       <c r="R9">
-        <v>644.8604359155763</v>
+        <v>0.281313424028</v>
       </c>
       <c r="S9">
-        <v>0.161767979385648</v>
+        <v>6.296496864968766E-06</v>
       </c>
       <c r="T9">
-        <v>0.161767979385648</v>
+        <v>6.296496864968767E-06</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>7.254459333333334</v>
+      </c>
+      <c r="H10">
+        <v>21.763378</v>
+      </c>
+      <c r="I10">
+        <v>0.1435736519118159</v>
+      </c>
+      <c r="J10">
+        <v>0.1435736519118159</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>16.61914433333333</v>
+      </c>
+      <c r="N10">
+        <v>49.857433</v>
+      </c>
+      <c r="O10">
+        <v>0.169157012735831</v>
+      </c>
+      <c r="P10">
+        <v>0.169157012735831</v>
+      </c>
+      <c r="Q10">
+        <v>120.5629067209638</v>
+      </c>
+      <c r="R10">
+        <v>1085.066160488674</v>
+      </c>
+      <c r="S10">
+        <v>0.02428649006497682</v>
+      </c>
+      <c r="T10">
+        <v>0.02428649006497682</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>7.254459333333334</v>
+      </c>
+      <c r="H11">
+        <v>21.763378</v>
+      </c>
+      <c r="I11">
+        <v>0.1435736519118159</v>
+      </c>
+      <c r="J11">
+        <v>0.1435736519118159</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>20.98681533333334</v>
+      </c>
+      <c r="N11">
+        <v>62.960446</v>
+      </c>
+      <c r="O11">
+        <v>0.2136131029023416</v>
+      </c>
+      <c r="P11">
+        <v>0.2136131029023416</v>
+      </c>
+      <c r="Q11">
+        <v>152.2479983718432</v>
+      </c>
+      <c r="R11">
+        <v>1370.231985346588</v>
+      </c>
+      <c r="S11">
+        <v>0.03066921327990371</v>
+      </c>
+      <c r="T11">
+        <v>0.03066921327990371</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>7.254459333333334</v>
+      </c>
+      <c r="H12">
+        <v>21.763378</v>
+      </c>
+      <c r="I12">
+        <v>0.1435736519118159</v>
+      </c>
+      <c r="J12">
+        <v>0.1435736519118159</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>60.62995566666667</v>
+      </c>
+      <c r="N12">
+        <v>181.889867</v>
+      </c>
+      <c r="O12">
+        <v>0.6171185457670396</v>
+      </c>
+      <c r="P12">
+        <v>0.6171185457670397</v>
+      </c>
+      <c r="Q12">
+        <v>439.8375477656363</v>
+      </c>
+      <c r="R12">
+        <v>3958.537929890727</v>
+      </c>
+      <c r="S12">
+        <v>0.08860196327828299</v>
+      </c>
+      <c r="T12">
+        <v>0.08860196327828301</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>7.254459333333334</v>
+      </c>
+      <c r="H13">
+        <v>21.763378</v>
+      </c>
+      <c r="I13">
+        <v>0.1435736519118159</v>
+      </c>
+      <c r="J13">
+        <v>0.1435736519118159</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.001810333333333333</v>
+      </c>
+      <c r="N13">
+        <v>0.005431</v>
+      </c>
+      <c r="O13">
+        <v>1.842637458226737E-05</v>
+      </c>
+      <c r="P13">
+        <v>1.842637458226737E-05</v>
+      </c>
+      <c r="Q13">
+        <v>0.01313298954644444</v>
+      </c>
+      <c r="R13">
+        <v>0.118196905918</v>
+      </c>
+      <c r="S13">
+        <v>2.645541890271187E-06</v>
+      </c>
+      <c r="T13">
+        <v>2.645541890271188E-06</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.05853</v>
+      </c>
+      <c r="H14">
+        <v>0.17559</v>
+      </c>
+      <c r="I14">
+        <v>0.001158372452070435</v>
+      </c>
+      <c r="J14">
+        <v>0.001158372452070435</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.004819666666666667</v>
+      </c>
+      <c r="N14">
+        <v>0.014459</v>
+      </c>
+      <c r="O14">
+        <v>4.905670228042789E-05</v>
+      </c>
+      <c r="P14">
+        <v>4.90567022804279E-05</v>
+      </c>
+      <c r="Q14">
+        <v>0.00028209509</v>
+      </c>
+      <c r="R14">
+        <v>0.00253885581</v>
+      </c>
+      <c r="S14">
+        <v>5.682593251106855E-08</v>
+      </c>
+      <c r="T14">
+        <v>5.682593251106855E-08</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.05853</v>
+      </c>
+      <c r="H15">
+        <v>0.17559</v>
+      </c>
+      <c r="I15">
+        <v>0.001158372452070435</v>
+      </c>
+      <c r="J15">
+        <v>0.001158372452070435</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.004308666666666666</v>
+      </c>
+      <c r="N15">
+        <v>0.012926</v>
+      </c>
+      <c r="O15">
+        <v>4.385551792494715E-05</v>
+      </c>
+      <c r="P15">
+        <v>4.385551792494716E-05</v>
+      </c>
+      <c r="Q15">
+        <v>0.00025218626</v>
+      </c>
+      <c r="R15">
+        <v>0.00226967634</v>
+      </c>
+      <c r="S15">
+        <v>5.080102383553994E-08</v>
+      </c>
+      <c r="T15">
+        <v>5.080102383553995E-08</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.05853</v>
+      </c>
+      <c r="H16">
+        <v>0.17559</v>
+      </c>
+      <c r="I16">
+        <v>0.001158372452070435</v>
+      </c>
+      <c r="J16">
+        <v>0.001158372452070435</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>16.61914433333333</v>
+      </c>
+      <c r="N16">
+        <v>49.857433</v>
+      </c>
+      <c r="O16">
+        <v>0.169157012735831</v>
+      </c>
+      <c r="P16">
+        <v>0.169157012735831</v>
+      </c>
+      <c r="Q16">
+        <v>0.9727185178300001</v>
+      </c>
+      <c r="R16">
+        <v>8.754466660469999</v>
+      </c>
+      <c r="S16">
+        <v>0.0001959468236277144</v>
+      </c>
+      <c r="T16">
+        <v>0.0001959468236277144</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
         <v>27</v>
       </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>31.936284469248</v>
-      </c>
-      <c r="H10">
-        <v>31.936284469248</v>
-      </c>
-      <c r="I10">
-        <v>0.7379891122651374</v>
-      </c>
-      <c r="J10">
-        <v>0.7379891122651374</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>59.7335306995914</v>
-      </c>
-      <c r="N10">
-        <v>59.7335306995914</v>
-      </c>
-      <c r="O10">
-        <v>0.6484544087876011</v>
-      </c>
-      <c r="P10">
-        <v>0.6484544087876011</v>
-      </c>
-      <c r="Q10">
-        <v>1907.667028774709</v>
-      </c>
-      <c r="R10">
-        <v>1907.667028774709</v>
-      </c>
-      <c r="S10">
-        <v>0.4785522934855763</v>
-      </c>
-      <c r="T10">
-        <v>0.4785522934855763</v>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.05853</v>
+      </c>
+      <c r="H17">
+        <v>0.17559</v>
+      </c>
+      <c r="I17">
+        <v>0.001158372452070435</v>
+      </c>
+      <c r="J17">
+        <v>0.001158372452070435</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>20.98681533333334</v>
+      </c>
+      <c r="N17">
+        <v>62.960446</v>
+      </c>
+      <c r="O17">
+        <v>0.2136131029023416</v>
+      </c>
+      <c r="P17">
+        <v>0.2136131029023416</v>
+      </c>
+      <c r="Q17">
+        <v>1.22835830146</v>
+      </c>
+      <c r="R17">
+        <v>11.05522471314</v>
+      </c>
+      <c r="S17">
+        <v>0.0002474435338033596</v>
+      </c>
+      <c r="T17">
+        <v>0.0002474435338033596</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.05853</v>
+      </c>
+      <c r="H18">
+        <v>0.17559</v>
+      </c>
+      <c r="I18">
+        <v>0.001158372452070435</v>
+      </c>
+      <c r="J18">
+        <v>0.001158372452070435</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>60.62995566666667</v>
+      </c>
+      <c r="N18">
+        <v>181.889867</v>
+      </c>
+      <c r="O18">
+        <v>0.6171185457670396</v>
+      </c>
+      <c r="P18">
+        <v>0.6171185457670397</v>
+      </c>
+      <c r="Q18">
+        <v>3.54867130517</v>
+      </c>
+      <c r="R18">
+        <v>31.93804174653</v>
+      </c>
+      <c r="S18">
+        <v>0.0007148531230783065</v>
+      </c>
+      <c r="T18">
+        <v>0.0007148531230783067</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.05853</v>
+      </c>
+      <c r="H19">
+        <v>0.17559</v>
+      </c>
+      <c r="I19">
+        <v>0.001158372452070435</v>
+      </c>
+      <c r="J19">
+        <v>0.001158372452070435</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>0.001810333333333333</v>
+      </c>
+      <c r="N19">
+        <v>0.005431</v>
+      </c>
+      <c r="O19">
+        <v>1.842637458226737E-05</v>
+      </c>
+      <c r="P19">
+        <v>1.842637458226737E-05</v>
+      </c>
+      <c r="Q19">
+        <v>0.00010595881</v>
+      </c>
+      <c r="R19">
+        <v>0.00095362929</v>
+      </c>
+      <c r="S19">
+        <v>2.134460470762939E-08</v>
+      </c>
+      <c r="T19">
+        <v>2.134460470762939E-08</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.4974426666666667</v>
+      </c>
+      <c r="H20">
+        <v>1.492328</v>
+      </c>
+      <c r="I20">
+        <v>0.009844932198037292</v>
+      </c>
+      <c r="J20">
+        <v>0.009844932198037292</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.004819666666666667</v>
+      </c>
+      <c r="N20">
+        <v>0.014459</v>
+      </c>
+      <c r="O20">
+        <v>4.905670228042789E-05</v>
+      </c>
+      <c r="P20">
+        <v>4.90567022804279E-05</v>
+      </c>
+      <c r="Q20">
+        <v>0.002397507839111111</v>
+      </c>
+      <c r="R20">
+        <v>0.021577570552</v>
+      </c>
+      <c r="S20">
+        <v>4.82959907810114E-07</v>
+      </c>
+      <c r="T20">
+        <v>4.829599078101141E-07</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.4974426666666667</v>
+      </c>
+      <c r="H21">
+        <v>1.492328</v>
+      </c>
+      <c r="I21">
+        <v>0.009844932198037292</v>
+      </c>
+      <c r="J21">
+        <v>0.009844932198037292</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M21">
+        <v>0.004308666666666666</v>
+      </c>
+      <c r="N21">
+        <v>0.012926</v>
+      </c>
+      <c r="O21">
+        <v>4.385551792494715E-05</v>
+      </c>
+      <c r="P21">
+        <v>4.385551792494716E-05</v>
+      </c>
+      <c r="Q21">
+        <v>0.002143314636444444</v>
+      </c>
+      <c r="R21">
+        <v>0.019289831728</v>
+      </c>
+      <c r="S21">
+        <v>4.317546004809138E-07</v>
+      </c>
+      <c r="T21">
+        <v>4.317546004809139E-07</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G22">
+        <v>0.4974426666666667</v>
+      </c>
+      <c r="H22">
+        <v>1.492328</v>
+      </c>
+      <c r="I22">
+        <v>0.009844932198037292</v>
+      </c>
+      <c r="J22">
+        <v>0.009844932198037292</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>16.61914433333333</v>
+      </c>
+      <c r="N22">
+        <v>49.857433</v>
+      </c>
+      <c r="O22">
+        <v>0.169157012735831</v>
+      </c>
+      <c r="P22">
+        <v>0.169157012735831</v>
+      </c>
+      <c r="Q22">
+        <v>8.267071474891557</v>
+      </c>
+      <c r="R22">
+        <v>74.40364327402401</v>
+      </c>
+      <c r="S22">
+        <v>0.001665339321206787</v>
+      </c>
+      <c r="T22">
+        <v>0.001665339321206787</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G23">
+        <v>0.4974426666666667</v>
+      </c>
+      <c r="H23">
+        <v>1.492328</v>
+      </c>
+      <c r="I23">
+        <v>0.009844932198037292</v>
+      </c>
+      <c r="J23">
+        <v>0.009844932198037292</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>20.98681533333334</v>
+      </c>
+      <c r="N23">
+        <v>62.960446</v>
+      </c>
+      <c r="O23">
+        <v>0.2136131029023416</v>
+      </c>
+      <c r="P23">
+        <v>0.2136131029023416</v>
+      </c>
+      <c r="Q23">
+        <v>10.43973738425422</v>
+      </c>
+      <c r="R23">
+        <v>93.95763645828801</v>
+      </c>
+      <c r="S23">
+        <v>0.002103006514685916</v>
+      </c>
+      <c r="T23">
+        <v>0.002103006514685916</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G24">
+        <v>0.4974426666666667</v>
+      </c>
+      <c r="H24">
+        <v>1.492328</v>
+      </c>
+      <c r="I24">
+        <v>0.009844932198037292</v>
+      </c>
+      <c r="J24">
+        <v>0.009844932198037292</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>60.62995566666667</v>
+      </c>
+      <c r="N24">
+        <v>181.889867</v>
+      </c>
+      <c r="O24">
+        <v>0.6171185457670396</v>
+      </c>
+      <c r="P24">
+        <v>0.6171185457670397</v>
+      </c>
+      <c r="Q24">
+        <v>30.15992682670845</v>
+      </c>
+      <c r="R24">
+        <v>271.439341440376</v>
+      </c>
+      <c r="S24">
+        <v>0.006075490241227878</v>
+      </c>
+      <c r="T24">
+        <v>0.00607549024122788</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G25">
+        <v>0.4974426666666667</v>
+      </c>
+      <c r="H25">
+        <v>1.492328</v>
+      </c>
+      <c r="I25">
+        <v>0.009844932198037292</v>
+      </c>
+      <c r="J25">
+        <v>0.009844932198037292</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M25">
+        <v>0.001810333333333333</v>
+      </c>
+      <c r="N25">
+        <v>0.005431</v>
+      </c>
+      <c r="O25">
+        <v>1.842637458226737E-05</v>
+      </c>
+      <c r="P25">
+        <v>1.842637458226737E-05</v>
+      </c>
+      <c r="Q25">
+        <v>0.0009005370408888889</v>
+      </c>
+      <c r="R25">
+        <v>0.008104833368000001</v>
+      </c>
+      <c r="S25">
+        <v>1.8140640841806E-07</v>
+      </c>
+      <c r="T25">
+        <v>1.8140640841806E-07</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>38.17751133333334</v>
+      </c>
+      <c r="H26">
+        <v>114.532534</v>
+      </c>
+      <c r="I26">
+        <v>0.755574533011108</v>
+      </c>
+      <c r="J26">
+        <v>0.755574533011108</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M26">
+        <v>0.004819666666666667</v>
+      </c>
+      <c r="N26">
+        <v>0.014459</v>
+      </c>
+      <c r="O26">
+        <v>4.905670228042789E-05</v>
+      </c>
+      <c r="P26">
+        <v>4.90567022804279E-05</v>
+      </c>
+      <c r="Q26">
+        <v>0.1840028787895556</v>
+      </c>
+      <c r="R26">
+        <v>1.656025909106</v>
+      </c>
+      <c r="S26">
+        <v>3.706599491659926E-05</v>
+      </c>
+      <c r="T26">
+        <v>3.706599491659927E-05</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>38.17751133333334</v>
+      </c>
+      <c r="H27">
+        <v>114.532534</v>
+      </c>
+      <c r="I27">
+        <v>0.755574533011108</v>
+      </c>
+      <c r="J27">
+        <v>0.755574533011108</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M27">
+        <v>0.004308666666666666</v>
+      </c>
+      <c r="N27">
+        <v>0.012926</v>
+      </c>
+      <c r="O27">
+        <v>4.385551792494715E-05</v>
+      </c>
+      <c r="P27">
+        <v>4.385551792494716E-05</v>
+      </c>
+      <c r="Q27">
+        <v>0.1644941704982222</v>
+      </c>
+      <c r="R27">
+        <v>1.480447534484</v>
+      </c>
+      <c r="S27">
+        <v>3.313611247610222E-05</v>
+      </c>
+      <c r="T27">
+        <v>3.313611247610223E-05</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>38.17751133333334</v>
+      </c>
+      <c r="H28">
+        <v>114.532534</v>
+      </c>
+      <c r="I28">
+        <v>0.755574533011108</v>
+      </c>
+      <c r="J28">
+        <v>0.755574533011108</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>16.61914433333333</v>
+      </c>
+      <c r="N28">
+        <v>49.857433</v>
+      </c>
+      <c r="O28">
+        <v>0.169157012735831</v>
+      </c>
+      <c r="P28">
+        <v>0.169157012735831</v>
+      </c>
+      <c r="Q28">
+        <v>634.4775711361359</v>
+      </c>
+      <c r="R28">
+        <v>5710.298140225222</v>
+      </c>
+      <c r="S28">
+        <v>0.1278107309034296</v>
+      </c>
+      <c r="T28">
+        <v>0.1278107309034296</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>38.17751133333334</v>
+      </c>
+      <c r="H29">
+        <v>114.532534</v>
+      </c>
+      <c r="I29">
+        <v>0.755574533011108</v>
+      </c>
+      <c r="J29">
+        <v>0.755574533011108</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>20.98681533333334</v>
+      </c>
+      <c r="N29">
+        <v>62.960446</v>
+      </c>
+      <c r="O29">
+        <v>0.2136131029023416</v>
+      </c>
+      <c r="P29">
+        <v>0.2136131029023416</v>
+      </c>
+      <c r="Q29">
+        <v>801.2243802389072</v>
+      </c>
+      <c r="R29">
+        <v>7211.019422150164</v>
+      </c>
+      <c r="S29">
+        <v>0.1614006204704905</v>
+      </c>
+      <c r="T29">
+        <v>0.1614006204704905</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>38.17751133333334</v>
+      </c>
+      <c r="H30">
+        <v>114.532534</v>
+      </c>
+      <c r="I30">
+        <v>0.755574533011108</v>
+      </c>
+      <c r="J30">
+        <v>0.755574533011108</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>60.62995566666667</v>
+      </c>
+      <c r="N30">
+        <v>181.889867</v>
+      </c>
+      <c r="O30">
+        <v>0.6171185457670396</v>
+      </c>
+      <c r="P30">
+        <v>0.6171185457670397</v>
+      </c>
+      <c r="Q30">
+        <v>2314.700819603665</v>
+      </c>
+      <c r="R30">
+        <v>20832.30737643298</v>
+      </c>
+      <c r="S30">
+        <v>0.466279057030425</v>
+      </c>
+      <c r="T30">
+        <v>0.4662790570304251</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>38.17751133333334</v>
+      </c>
+      <c r="H31">
+        <v>114.532534</v>
+      </c>
+      <c r="I31">
+        <v>0.755574533011108</v>
+      </c>
+      <c r="J31">
+        <v>0.755574533011108</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M31">
+        <v>0.001810333333333333</v>
+      </c>
+      <c r="N31">
+        <v>0.005431</v>
+      </c>
+      <c r="O31">
+        <v>1.842637458226737E-05</v>
+      </c>
+      <c r="P31">
+        <v>1.842637458226737E-05</v>
+      </c>
+      <c r="Q31">
+        <v>0.06911402135044445</v>
+      </c>
+      <c r="R31">
+        <v>0.622026192154</v>
+      </c>
+      <c r="S31">
+        <v>1.392249937008442E-05</v>
+      </c>
+      <c r="T31">
+        <v>1.392249937008442E-05</v>
       </c>
     </row>
   </sheetData>
